--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s2_P1_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s2_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>615.0072073661884</v>
+        <v>1793.205371022768</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.001000165939331055</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.59143808817635</v>
+        <v>27.21363927694955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.19792368279113</v>
+        <v>11.61690297149432</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.97369296080846</v>
+        <v>11.6086347173128</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>364.5799999999948</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.06</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.93504247831764</v>
+        <v>17.71826622296189</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.27021167277385</v>
+        <v>18.38309702850568</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.99312545677591</v>
+        <v>3.132299474826759</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>6.125424931602669</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.97645744572761</v>
+        <v>19.67685125555192</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.12542493160267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,15 +1071,71 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.0399999999998</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1193,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>177.55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -1204,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>178.1100000000002</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -1215,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>179.6099999999998</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1226,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>185.0799999999999</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -1237,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.0650000000013</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
@@ -1248,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.15</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14">
@@ -1259,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>141.6400000000013</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
@@ -1270,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>144.1900000000013</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
@@ -1281,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>145.6100000000013</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
@@ -1292,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1303,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.205</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1314,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1325,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1336,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.995</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1347,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -1358,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1369,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -1380,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1391,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1402,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
@@ -1413,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -1424,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
@@ -1435,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
@@ -1446,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
@@ -1457,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3399999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1468,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>159.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1479,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>140.4299999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1490,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1501,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1512,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>192.0399999999992</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38">
@@ -1523,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>177.55</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39">
@@ -1534,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.1099999999998</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40">
@@ -1545,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>179.6099999999992</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
@@ -1556,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>185.0799999999992</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9.205000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1636,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1647,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.994999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1658,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>42.0399999999992</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
@@ -1669,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>27.55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -1680,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>28.10999999999976</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1691,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>29.60999999999919</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1702,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>35.07999999999925</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1760,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1771,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1782,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1793,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1804,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1815,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1826,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1837,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1848,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1859,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1870,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1881,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1892,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1903,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1914,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1936,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -1947,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1958,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1969,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1980,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1991,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2002,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2013,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2054,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2065,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2076,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2087,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2098,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2109,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2120,7 +2176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2131,10 +2187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2142,12 +2198,23 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
